--- a/Income/CMS_inc.xlsx
+++ b/Income/CMS_inc.xlsx
@@ -1981,16 +1981,16 @@
         <v>0.2576</v>
       </c>
       <c r="D15" s="0" t="n">
-        <v>0.2503</v>
+        <v>0.3552</v>
       </c>
       <c r="E15" s="0" t="n">
-        <v>0.3273</v>
+        <v>0.4328</v>
       </c>
       <c r="F15" s="0" t="n">
-        <v>0.4024</v>
+        <v>0.5078</v>
       </c>
       <c r="G15" s="0" t="n">
-        <v>0.4837</v>
+        <v>0.5861</v>
       </c>
       <c r="H15" s="0" t="n">
         <v>0.5675</v>
@@ -2483,7 +2483,7 @@
         </is>
       </c>
       <c r="B19" s="0" t="n">
-        <v>0.2764</v>
+        <v>-0.047</v>
       </c>
       <c r="C19" s="0" t="n">
         <v>-0.1558</v>
@@ -4108,7 +4108,7 @@
         </is>
       </c>
       <c r="B30" s="0" t="n">
-        <v>0.0</v>
+        <v>0.3698</v>
       </c>
       <c r="C30" s="0" t="n">
         <v>0.3608</v>
